--- a/Grid_5x5/Solutions/Solution_NDP_S011/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S011/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2608,7 +2608,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>19.511986226286634</v>
+        <v>19.511986226286641</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2628,7 +2628,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>20.580667381911177</v>
+        <v>20.580667381911184</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2648,7 +2648,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.24762783401664676</v>
+        <v>0.2476278340166467</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2669,7 +2669,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.94235476190476197</v>
+        <v>0.94235476190476108</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -7761,13 +7761,13 @@
         <v>75.643000000000001</v>
       </c>
       <c r="L13" s="72">
-        <v>32.39200000000001</v>
+        <v>32.391999999999996</v>
       </c>
       <c r="M13" s="72">
         <v>3.6920000000000002</v>
       </c>
       <c r="N13" s="72">
-        <v>108.03500000000001</v>
+        <v>108.035</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7802,7 +7802,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="72">
-        <v>37.808000000000007</v>
+        <v>37.808</v>
       </c>
       <c r="L14" s="72">
         <v>20.006</v>
@@ -7811,7 +7811,7 @@
         <v>88.028999999999996</v>
       </c>
       <c r="N14" s="72">
-        <v>57.814000000000007</v>
+        <v>57.814</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7846,16 +7846,16 @@
         <v>70</v>
       </c>
       <c r="K15" s="72">
-        <v>45.774999999999999</v>
+        <v>45.775000000000006</v>
       </c>
       <c r="L15" s="72">
-        <v>45.588000000000015</v>
+        <v>45.587999999999994</v>
       </c>
       <c r="M15" s="72">
         <v>12.226000000000001</v>
       </c>
       <c r="N15" s="72">
-        <v>91.363000000000014</v>
+        <v>91.363</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -9018,16 +9018,16 @@
         <v>70</v>
       </c>
       <c r="K43" s="72">
-        <v>119.37400000000001</v>
+        <v>119.37400000000002</v>
       </c>
       <c r="L43" s="72">
-        <v>50.04500000000003</v>
+        <v>50.044999999999959</v>
       </c>
       <c r="M43" s="72">
         <v>7.1669999999999998</v>
       </c>
       <c r="N43" s="72">
-        <v>169.41900000000004</v>
+        <v>169.41899999999998</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -9065,13 +9065,13 @@
         <v>36.137</v>
       </c>
       <c r="L44" s="72">
-        <v>102.21100000000007</v>
+        <v>102.21100000000001</v>
       </c>
       <c r="M44" s="72">
         <v>67.207999999999998</v>
       </c>
       <c r="N44" s="72">
-        <v>138.34800000000007</v>
+        <v>138.34800000000001</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -9106,13 +9106,13 @@
         <v>70</v>
       </c>
       <c r="K45" s="72">
-        <v>40.811999999999998</v>
+        <v>40.812000000000005</v>
       </c>
       <c r="L45" s="72">
-        <v>43.349000000000004</v>
+        <v>43.348999999999997</v>
       </c>
       <c r="M45" s="72">
-        <v>94.999000000000024</v>
+        <v>94.999000000000009</v>
       </c>
       <c r="N45" s="72">
         <v>84.161000000000001</v>
@@ -9153,13 +9153,13 @@
         <v>3.8810000000000002</v>
       </c>
       <c r="L46" s="72">
-        <v>25.354999999999997</v>
+        <v>25.355000000000004</v>
       </c>
       <c r="M46" s="72">
-        <v>58.805999999999997</v>
+        <v>58.806000000000004</v>
       </c>
       <c r="N46" s="72">
-        <v>29.235999999999997</v>
+        <v>29.236000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="72">
-        <v>29.235999999999997</v>
+        <v>29.236000000000004</v>
       </c>
       <c r="N47" s="72">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>70</v>
       </c>
       <c r="K48" s="72">
-        <v>53.410000000000004</v>
+        <v>53.41</v>
       </c>
       <c r="L48" s="72">
         <v>0</v>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="72">
-        <v>53.410000000000004</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -10873,13 +10873,13 @@
         <v>1.8320000000000001</v>
       </c>
       <c r="L87" s="72">
-        <v>8.3579999999999988</v>
+        <v>8.3580000000000005</v>
       </c>
       <c r="M87" s="72">
         <v>10.039</v>
       </c>
       <c r="N87" s="72">
-        <v>10.19</v>
+        <v>10.190000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -10917,13 +10917,13 @@
         <v>1.3800000000000001</v>
       </c>
       <c r="L88" s="72">
-        <v>4.7430000000000012</v>
+        <v>4.7430000000000003</v>
       </c>
       <c r="M88" s="72">
         <v>5.4470000000000001</v>
       </c>
       <c r="N88" s="72">
-        <v>6.1230000000000011</v>
+        <v>6.1230000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="72">
-        <v>6.1230000000000011</v>
+        <v>6.1230000000000002</v>
       </c>
       <c r="N89" s="72">
         <v>0</v>
@@ -12089,13 +12089,13 @@
         <v>13.702</v>
       </c>
       <c r="L116" s="72">
-        <v>28.701000000000001</v>
+        <v>28.701000000000008</v>
       </c>
       <c r="M116" s="72">
         <v>5.992</v>
       </c>
       <c r="N116" s="72">
-        <v>42.402999999999999</v>
+        <v>42.403000000000006</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -12130,10 +12130,10 @@
         <v>70</v>
       </c>
       <c r="K117" s="72">
-        <v>33.653000000000006</v>
+        <v>33.652999999999999</v>
       </c>
       <c r="L117" s="72">
-        <v>33.069000000000003</v>
+        <v>33.06900000000001</v>
       </c>
       <c r="M117" s="72">
         <v>9.3339999999999996</v>
@@ -12250,7 +12250,7 @@
         <v>70</v>
       </c>
       <c r="K120" s="72">
-        <v>30.279999999999998</v>
+        <v>30.28</v>
       </c>
       <c r="L120" s="72">
         <v>0</v>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="72">
-        <v>30.279999999999998</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -14026,16 +14026,16 @@
         <v>70</v>
       </c>
       <c r="K162" s="72">
-        <v>40.277999999999999</v>
+        <v>40.278000000000006</v>
       </c>
       <c r="L162" s="72">
-        <v>147.63300000000004</v>
+        <v>147.63299999999998</v>
       </c>
       <c r="M162" s="72">
-        <v>20.352000000000004</v>
+        <v>20.352</v>
       </c>
       <c r="N162" s="72">
-        <v>187.91100000000003</v>
+        <v>187.911</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -14076,7 +14076,7 @@
         <v>70.695999999999998</v>
       </c>
       <c r="M163" s="72">
-        <v>117.21500000000002</v>
+        <v>117.215</v>
       </c>
       <c r="N163" s="72">
         <v>92.046999999999997</v>
@@ -14117,13 +14117,13 @@
         <v>29.603999999999999</v>
       </c>
       <c r="L164" s="72">
-        <v>71.756</v>
+        <v>71.756000000000014</v>
       </c>
       <c r="M164" s="72">
-        <v>20.291</v>
+        <v>20.290999999999997</v>
       </c>
       <c r="N164" s="72">
-        <v>101.36</v>
+        <v>101.36000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14205,13 +14205,13 @@
         <v>10.248999999999999</v>
       </c>
       <c r="L166" s="72">
-        <v>68.152000000000001</v>
+        <v>68.152000000000015</v>
       </c>
       <c r="M166" s="72">
-        <v>20.629000000000001</v>
+        <v>20.628999999999998</v>
       </c>
       <c r="N166" s="72">
-        <v>78.400999999999996</v>
+        <v>78.40100000000001</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="72">
-        <v>78.400999999999996</v>
+        <v>78.40100000000001</v>
       </c>
       <c r="N167" s="72">
         <v>0</v>
@@ -14322,7 +14322,7 @@
         <v>70</v>
       </c>
       <c r="K169" s="72">
-        <v>28.026999999999997</v>
+        <v>28.027000000000001</v>
       </c>
       <c r="L169" s="72">
         <v>113.54400000000003</v>
@@ -14369,13 +14369,13 @@
         <v>24.016000000000002</v>
       </c>
       <c r="L170" s="72">
-        <v>132.40200000000002</v>
+        <v>132.40200000000004</v>
       </c>
       <c r="M170" s="72">
         <v>9.1690000000000005</v>
       </c>
       <c r="N170" s="72">
-        <v>156.41800000000001</v>
+        <v>156.41800000000003</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -14410,10 +14410,10 @@
         <v>70</v>
       </c>
       <c r="K171" s="72">
-        <v>73.751999999999995</v>
+        <v>73.75200000000001</v>
       </c>
       <c r="L171" s="72">
-        <v>142.16700000000003</v>
+        <v>142.167</v>
       </c>
       <c r="M171" s="72">
         <v>14.251000000000001</v>
@@ -14454,13 +14454,13 @@
         <v>70</v>
       </c>
       <c r="K172" s="72">
-        <v>25.776</v>
+        <v>25.776000000000003</v>
       </c>
       <c r="L172" s="72">
-        <v>100.069</v>
+        <v>100.06899999999999</v>
       </c>
       <c r="M172" s="72">
-        <v>115.85</v>
+        <v>115.85000000000002</v>
       </c>
       <c r="N172" s="72">
         <v>125.845</v>
@@ -14504,7 +14504,7 @@
         <v>107.58800000000001</v>
       </c>
       <c r="M173" s="72">
-        <v>18.257000000000001</v>
+        <v>18.256999999999998</v>
       </c>
       <c r="N173" s="72">
         <v>142.31800000000001</v>
@@ -14545,13 +14545,13 @@
         <v>7.9530000000000003</v>
       </c>
       <c r="L174" s="72">
-        <v>112.50800000000001</v>
+        <v>112.508</v>
       </c>
       <c r="M174" s="72">
-        <v>29.809999999999995</v>
+        <v>29.81</v>
       </c>
       <c r="N174" s="72">
-        <v>120.46100000000001</v>
+        <v>120.461</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -14662,7 +14662,7 @@
         <v>70</v>
       </c>
       <c r="K177" s="72">
-        <v>118.137</v>
+        <v>118.13700000000001</v>
       </c>
       <c r="L177" s="72">
         <v>0</v>
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="N177" s="72">
-        <v>118.137</v>
+        <v>118.13700000000001</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -14706,7 +14706,7 @@
         <v>70</v>
       </c>
       <c r="K178" s="72">
-        <v>27.061999999999998</v>
+        <v>27.062000000000001</v>
       </c>
       <c r="L178" s="72">
         <v>111.41500000000001</v>
@@ -18004,7 +18004,7 @@
         <v>44.714999999999996</v>
       </c>
       <c r="M255" s="72">
-        <v>19.121000000000002</v>
+        <v>19.120999999999999</v>
       </c>
       <c r="N255" s="72">
         <v>58.906999999999996</v>
@@ -18048,7 +18048,7 @@
         <v>34.25</v>
       </c>
       <c r="M256" s="72">
-        <v>24.657</v>
+        <v>24.656999999999996</v>
       </c>
       <c r="N256" s="72">
         <v>37.683999999999997</v>
@@ -18206,10 +18206,10 @@
         <v>70</v>
       </c>
       <c r="K260" s="72">
-        <v>42.187000000000005</v>
+        <v>42.187000000000012</v>
       </c>
       <c r="L260" s="72">
-        <v>52.768999999999998</v>
+        <v>52.768999999999991</v>
       </c>
       <c r="M260" s="72">
         <v>3.097</v>
@@ -18256,7 +18256,7 @@
         <v>67.714000000000013</v>
       </c>
       <c r="M261" s="72">
-        <v>27.242000000000004</v>
+        <v>27.241999999999997</v>
       </c>
       <c r="N261" s="72">
         <v>101.15700000000001</v>
@@ -18297,13 +18297,13 @@
         <v>17.810000000000002</v>
       </c>
       <c r="L262" s="72">
-        <v>25.466000000000008</v>
+        <v>25.465999999999994</v>
       </c>
       <c r="M262" s="72">
         <v>75.691000000000003</v>
       </c>
       <c r="N262" s="72">
-        <v>43.27600000000001</v>
+        <v>43.275999999999996</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -18338,16 +18338,16 @@
         <v>70</v>
       </c>
       <c r="K263" s="72">
-        <v>11.895999999999999</v>
+        <v>11.896000000000001</v>
       </c>
       <c r="L263" s="72">
-        <v>28.733000000000004</v>
+        <v>28.732999999999997</v>
       </c>
       <c r="M263" s="72">
         <v>14.542999999999999</v>
       </c>
       <c r="N263" s="72">
-        <v>40.629000000000005</v>
+        <v>40.628999999999998</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
@@ -18429,13 +18429,13 @@
         <v>1.8860000000000001</v>
       </c>
       <c r="L265" s="72">
-        <v>21.28</v>
+        <v>21.280000000000005</v>
       </c>
       <c r="M265" s="72">
         <v>17.075000000000003</v>
       </c>
       <c r="N265" s="72">
-        <v>23.166</v>
+        <v>23.166000000000004</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -18473,7 +18473,7 @@
         <v>0</v>
       </c>
       <c r="M266" s="72">
-        <v>23.166</v>
+        <v>23.166000000000004</v>
       </c>
       <c r="N266" s="72">
         <v>0</v>
@@ -18502,7 +18502,7 @@
         <v>70</v>
       </c>
       <c r="K267" s="72">
-        <v>23.847000000000005</v>
+        <v>23.847000000000001</v>
       </c>
       <c r="L267" s="72">
         <v>0</v>
@@ -18511,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="N267" s="72">
-        <v>23.847000000000005</v>
+        <v>23.847000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -18549,13 +18549,13 @@
         <v>29.477000000000004</v>
       </c>
       <c r="L268" s="72">
-        <v>21.859000000000002</v>
+        <v>21.858999999999995</v>
       </c>
       <c r="M268" s="72">
         <v>1.988</v>
       </c>
       <c r="N268" s="72">
-        <v>51.336000000000006</v>
+        <v>51.335999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
@@ -18590,16 +18590,16 @@
         <v>70</v>
       </c>
       <c r="K269" s="72">
-        <v>36.939000000000007</v>
+        <v>36.939</v>
       </c>
       <c r="L269" s="72">
-        <v>48.24199999999999</v>
+        <v>48.242000000000012</v>
       </c>
       <c r="M269" s="72">
         <v>3.0939999999999999</v>
       </c>
       <c r="N269" s="72">
-        <v>85.180999999999997</v>
+        <v>85.181000000000012</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -18681,13 +18681,13 @@
         <v>15.004</v>
       </c>
       <c r="L271" s="72">
-        <v>25.664999999999999</v>
+        <v>25.665000000000006</v>
       </c>
       <c r="M271" s="72">
         <v>67.239000000000004</v>
       </c>
       <c r="N271" s="72">
-        <v>40.668999999999997</v>
+        <v>40.669000000000004</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
@@ -22697,13 +22697,13 @@
         <v>106.749</v>
       </c>
       <c r="L365" s="72">
-        <v>73.980000000000018</v>
+        <v>73.97999999999999</v>
       </c>
       <c r="M365" s="72">
         <v>14.818</v>
       </c>
       <c r="N365" s="72">
-        <v>180.72900000000001</v>
+        <v>180.72899999999998</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
@@ -22741,13 +22741,13 @@
         <v>23.201999999999998</v>
       </c>
       <c r="L366" s="72">
-        <v>120.96000000000001</v>
+        <v>120.95999999999998</v>
       </c>
       <c r="M366" s="72">
-        <v>59.768999999999998</v>
+        <v>59.769000000000005</v>
       </c>
       <c r="N366" s="72">
-        <v>144.16200000000001</v>
+        <v>144.16199999999998</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
@@ -22902,7 +22902,7 @@
         <v>70</v>
       </c>
       <c r="K370" s="72">
-        <v>15.996</v>
+        <v>15.996000000000002</v>
       </c>
       <c r="L370" s="72">
         <v>0</v>
@@ -22911,7 +22911,7 @@
         <v>0</v>
       </c>
       <c r="N370" s="72">
-        <v>15.996</v>
+        <v>15.996000000000002</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
@@ -22990,10 +22990,10 @@
         <v>70</v>
       </c>
       <c r="K372" s="72">
-        <v>14.513000000000002</v>
+        <v>14.512999999999998</v>
       </c>
       <c r="L372" s="72">
-        <v>18.016999999999999</v>
+        <v>18.017000000000003</v>
       </c>
       <c r="M372" s="72">
         <v>15.201000000000001</v>
@@ -23078,16 +23078,16 @@
         <v>70</v>
       </c>
       <c r="K374" s="72">
-        <v>21.234999999999999</v>
+        <v>21.234999999999996</v>
       </c>
       <c r="L374" s="72">
-        <v>30.098999999999997</v>
+        <v>30.099000000000007</v>
       </c>
       <c r="M374" s="72">
         <v>6.8150000000000004</v>
       </c>
       <c r="N374" s="72">
-        <v>51.333999999999996</v>
+        <v>51.334000000000003</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
@@ -23122,13 +23122,13 @@
         <v>70</v>
       </c>
       <c r="K375" s="72">
-        <v>29.304000000000002</v>
+        <v>29.303999999999998</v>
       </c>
       <c r="L375" s="72">
         <v>43.804000000000002</v>
       </c>
       <c r="M375" s="72">
-        <v>7.5299999999999994</v>
+        <v>7.53</v>
       </c>
       <c r="N375" s="72">
         <v>73.108000000000004</v>
@@ -23213,13 +23213,13 @@
         <v>19.893000000000001</v>
       </c>
       <c r="L377" s="72">
-        <v>80.235000000000014</v>
+        <v>80.234999999999999</v>
       </c>
       <c r="M377" s="72">
-        <v>39.900999999999996</v>
+        <v>39.90100000000001</v>
       </c>
       <c r="N377" s="72">
-        <v>100.12800000000001</v>
+        <v>100.128</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.25">
@@ -23257,13 +23257,13 @@
         <v>82.066000000000003</v>
       </c>
       <c r="L378" s="72">
-        <v>31.047999999999988</v>
+        <v>31.048000000000002</v>
       </c>
       <c r="M378" s="72">
-        <v>69.079999999999984</v>
+        <v>69.080000000000013</v>
       </c>
       <c r="N378" s="72">
-        <v>113.11399999999999</v>
+        <v>113.114</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
@@ -23418,10 +23418,10 @@
         <v>70</v>
       </c>
       <c r="K382" s="72">
-        <v>19.149999999999999</v>
+        <v>19.150000000000002</v>
       </c>
       <c r="L382" s="72">
-        <v>14.029000000000003</v>
+        <v>14.029</v>
       </c>
       <c r="M382" s="72">
         <v>1.986</v>
@@ -23462,10 +23462,10 @@
         <v>70</v>
       </c>
       <c r="K383" s="72">
-        <v>10.933000000000002</v>
+        <v>10.933</v>
       </c>
       <c r="L383" s="72">
-        <v>15.023000000000001</v>
+        <v>15.023000000000003</v>
       </c>
       <c r="M383" s="72">
         <v>18.155999999999999</v>
@@ -23506,16 +23506,16 @@
         <v>70</v>
       </c>
       <c r="K384" s="72">
-        <v>13.257000000000001</v>
+        <v>13.257</v>
       </c>
       <c r="L384" s="72">
         <v>16.542999999999999</v>
       </c>
       <c r="M384" s="72">
-        <v>9.4129999999999985</v>
+        <v>9.4130000000000003</v>
       </c>
       <c r="N384" s="72">
-        <v>29.8</v>
+        <v>29.799999999999997</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.25">
@@ -23550,10 +23550,10 @@
         <v>70</v>
       </c>
       <c r="K385" s="72">
-        <v>19.327000000000002</v>
+        <v>19.326999999999998</v>
       </c>
       <c r="L385" s="72">
-        <v>23.065999999999999</v>
+        <v>23.066000000000003</v>
       </c>
       <c r="M385" s="72">
         <v>6.734</v>
@@ -27798,16 +27798,16 @@
         <v>70</v>
       </c>
       <c r="K484" s="72">
-        <v>17.022999999999996</v>
+        <v>17.023000000000003</v>
       </c>
       <c r="L484" s="72">
-        <v>52.525999999999996</v>
+        <v>52.526000000000003</v>
       </c>
       <c r="M484" s="72">
-        <v>35.067999999999998</v>
+        <v>35.068000000000005</v>
       </c>
       <c r="N484" s="72">
-        <v>69.548999999999992</v>
+        <v>69.549000000000007</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
@@ -27845,13 +27845,13 @@
         <v>9.76</v>
       </c>
       <c r="L485" s="72">
-        <v>50.64</v>
+        <v>50.640000000000008</v>
       </c>
       <c r="M485" s="72">
         <v>18.908999999999999</v>
       </c>
       <c r="N485" s="72">
-        <v>60.4</v>
+        <v>60.400000000000006</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
@@ -27886,7 +27886,7 @@
         <v>70</v>
       </c>
       <c r="K486" s="72">
-        <v>15.293000000000001</v>
+        <v>15.292999999999999</v>
       </c>
       <c r="L486" s="72">
         <v>44.678000000000004</v>
@@ -27930,10 +27930,10 @@
         <v>70</v>
       </c>
       <c r="K487" s="72">
-        <v>20.266000000000002</v>
+        <v>20.265999999999998</v>
       </c>
       <c r="L487" s="72">
-        <v>47.98299999999999</v>
+        <v>47.982999999999997</v>
       </c>
       <c r="M487" s="72">
         <v>11.988</v>
@@ -27974,16 +27974,16 @@
         <v>70</v>
       </c>
       <c r="K488" s="72">
-        <v>36.974999999999994</v>
+        <v>36.975000000000009</v>
       </c>
       <c r="L488" s="72">
-        <v>52.979000000000013</v>
+        <v>52.978999999999985</v>
       </c>
       <c r="M488" s="72">
         <v>15.27</v>
       </c>
       <c r="N488" s="72">
-        <v>89.954000000000008</v>
+        <v>89.953999999999994</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.25">
@@ -28024,7 +28024,7 @@
         <v>69.844999999999999</v>
       </c>
       <c r="M489" s="72">
-        <v>20.108999999999998</v>
+        <v>20.109000000000002</v>
       </c>
       <c r="N489" s="72">
         <v>80.334000000000003</v>
@@ -28188,7 +28188,7 @@
         <v>24.838999999999999</v>
       </c>
       <c r="M493" s="72">
-        <v>91.223000000000013</v>
+        <v>91.222999999999999</v>
       </c>
       <c r="N493" s="72">
         <v>96.68</v>
@@ -28229,13 +28229,13 @@
         <v>48.366</v>
       </c>
       <c r="L494" s="72">
-        <v>81.911999999999992</v>
+        <v>81.91200000000002</v>
       </c>
       <c r="M494" s="72">
-        <v>14.768000000000001</v>
+        <v>14.767999999999999</v>
       </c>
       <c r="N494" s="72">
-        <v>130.27799999999999</v>
+        <v>130.27800000000002</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.25">
@@ -28273,13 +28273,13 @@
         <v>18.82</v>
       </c>
       <c r="L495" s="72">
-        <v>62.532000000000004</v>
+        <v>62.531999999999989</v>
       </c>
       <c r="M495" s="72">
-        <v>67.745999999999995</v>
+        <v>67.746000000000009</v>
       </c>
       <c r="N495" s="72">
-        <v>81.352000000000004</v>
+        <v>81.35199999999999</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.25">
@@ -28314,16 +28314,16 @@
         <v>70</v>
       </c>
       <c r="K496" s="72">
-        <v>9.2370000000000001</v>
+        <v>9.2369999999999983</v>
       </c>
       <c r="L496" s="72">
-        <v>47.780999999999999</v>
+        <v>47.780999999999992</v>
       </c>
       <c r="M496" s="72">
         <v>33.570999999999998</v>
       </c>
       <c r="N496" s="72">
-        <v>57.018000000000001</v>
+        <v>57.017999999999994</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.25">
@@ -28405,13 +28405,13 @@
         <v>19.661000000000001</v>
       </c>
       <c r="L498" s="72">
-        <v>45.155999999999992</v>
+        <v>45.156000000000006</v>
       </c>
       <c r="M498" s="72">
         <v>12.324999999999999</v>
       </c>
       <c r="N498" s="72">
-        <v>64.816999999999993</v>
+        <v>64.817000000000007</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
@@ -28449,13 +28449,13 @@
         <v>41.954000000000001</v>
       </c>
       <c r="L499" s="72">
-        <v>49.33400000000001</v>
+        <v>49.333999999999996</v>
       </c>
       <c r="M499" s="72">
-        <v>15.482999999999999</v>
+        <v>15.483000000000001</v>
       </c>
       <c r="N499" s="72">
-        <v>91.288000000000011</v>
+        <v>91.287999999999997</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.25">
@@ -28610,16 +28610,16 @@
         <v>70</v>
       </c>
       <c r="K503" s="72">
-        <v>107.31300000000002</v>
+        <v>107.313</v>
       </c>
       <c r="L503" s="72">
-        <v>46.125</v>
+        <v>46.124999999999986</v>
       </c>
       <c r="M503" s="72">
         <v>5.6950000000000003</v>
       </c>
       <c r="N503" s="72">
-        <v>153.43800000000002</v>
+        <v>153.43799999999999</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.25">
@@ -28657,13 +28657,13 @@
         <v>41.608000000000004</v>
       </c>
       <c r="L504" s="72">
-        <v>31.570999999999984</v>
+        <v>31.570999999999998</v>
       </c>
       <c r="M504" s="72">
-        <v>121.86700000000002</v>
+        <v>121.86699999999999</v>
       </c>
       <c r="N504" s="72">
-        <v>73.178999999999988</v>
+        <v>73.179000000000002</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.25">
@@ -33116,7 +33116,7 @@
         <v>59.20300000000001</v>
       </c>
       <c r="M608" s="72">
-        <v>20.787999999999997</v>
+        <v>20.788</v>
       </c>
       <c r="N608" s="72">
         <v>89.722000000000008</v>
@@ -33157,13 +33157,13 @@
         <v>5.0609999999999999</v>
       </c>
       <c r="L609" s="72">
-        <v>26.818000000000005</v>
+        <v>26.818000000000001</v>
       </c>
       <c r="M609" s="72">
         <v>62.904000000000011</v>
       </c>
       <c r="N609" s="72">
-        <v>31.879000000000005</v>
+        <v>31.879000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.25">
@@ -33201,7 +33201,7 @@
         <v>0</v>
       </c>
       <c r="M610" s="72">
-        <v>31.879000000000005</v>
+        <v>31.879000000000001</v>
       </c>
       <c r="N610" s="72">
         <v>0</v>
@@ -33277,13 +33277,13 @@
         <v>61.97</v>
       </c>
       <c r="L612" s="72">
-        <v>26.428999999999988</v>
+        <v>26.429000000000002</v>
       </c>
       <c r="M612" s="72">
         <v>5.0310000000000006</v>
       </c>
       <c r="N612" s="72">
-        <v>88.398999999999987</v>
+        <v>88.399000000000001</v>
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.25">
@@ -33318,13 +33318,13 @@
         <v>70</v>
       </c>
       <c r="K613" s="72">
-        <v>47.690999999999995</v>
+        <v>47.691000000000003</v>
       </c>
       <c r="L613" s="72">
-        <v>59.000000000000007</v>
+        <v>59</v>
       </c>
       <c r="M613" s="72">
-        <v>29.398999999999997</v>
+        <v>29.399000000000001</v>
       </c>
       <c r="N613" s="72">
         <v>106.691</v>
@@ -33406,10 +33406,10 @@
         <v>70</v>
       </c>
       <c r="K615" s="72">
-        <v>32.295999999999999</v>
+        <v>32.295999999999992</v>
       </c>
       <c r="L615" s="72">
-        <v>52.669000000000004</v>
+        <v>52.669000000000011</v>
       </c>
       <c r="M615" s="72">
         <v>15.431000000000001</v>
@@ -33456,7 +33456,7 @@
         <v>25.163</v>
       </c>
       <c r="M616" s="72">
-        <v>59.801999999999992</v>
+        <v>59.802</v>
       </c>
       <c r="N616" s="72">
         <v>30.105</v>
@@ -33526,7 +33526,7 @@
         <v>70</v>
       </c>
       <c r="K618" s="72">
-        <v>49.202999999999996</v>
+        <v>49.203000000000003</v>
       </c>
       <c r="L618" s="72">
         <v>0</v>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
       <c r="N618" s="72">
-        <v>49.202999999999996</v>
+        <v>49.203000000000003</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.25">
@@ -33570,10 +33570,10 @@
         <v>70</v>
       </c>
       <c r="K619" s="72">
-        <v>102.92200000000003</v>
+        <v>102.922</v>
       </c>
       <c r="L619" s="72">
-        <v>44.178999999999974</v>
+        <v>44.179000000000002</v>
       </c>
       <c r="M619" s="72">
         <v>5.024</v>
@@ -33614,16 +33614,16 @@
         <v>70</v>
       </c>
       <c r="K620" s="72">
-        <v>31.519000000000002</v>
+        <v>31.518999999999998</v>
       </c>
       <c r="L620" s="72">
-        <v>69.881</v>
+        <v>69.880999999999972</v>
       </c>
       <c r="M620" s="72">
         <v>77.220000000000013</v>
       </c>
       <c r="N620" s="72">
-        <v>101.4</v>
+        <v>101.39999999999998</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
@@ -33658,13 +33658,13 @@
         <v>70</v>
       </c>
       <c r="K621" s="72">
-        <v>36.104999999999997</v>
+        <v>36.105000000000004</v>
       </c>
       <c r="L621" s="72">
-        <v>32.635999999999989</v>
+        <v>32.635999999999981</v>
       </c>
       <c r="M621" s="72">
-        <v>68.76400000000001</v>
+        <v>68.763999999999982</v>
       </c>
       <c r="N621" s="72">
         <v>68.740999999999985</v>
@@ -33822,7 +33822,7 @@
         <v>70</v>
       </c>
       <c r="K625" s="72">
-        <v>41.469000000000008</v>
+        <v>41.468999999999994</v>
       </c>
       <c r="L625" s="72">
         <v>0</v>
@@ -33831,7 +33831,7 @@
         <v>0</v>
       </c>
       <c r="N625" s="72">
-        <v>41.469000000000008</v>
+        <v>41.468999999999994</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.25">
@@ -33866,7 +33866,7 @@
         <v>70</v>
       </c>
       <c r="K626" s="72">
-        <v>84.355000000000004</v>
+        <v>84.355000000000018</v>
       </c>
       <c r="L626" s="72">
         <v>36.472999999999999</v>
@@ -33875,7 +33875,7 @@
         <v>4.9960000000000004</v>
       </c>
       <c r="N626" s="72">
-        <v>120.828</v>
+        <v>120.82800000000002</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.25">
@@ -33910,13 +33910,13 @@
         <v>70</v>
       </c>
       <c r="K627" s="72">
-        <v>42.772000000000006</v>
+        <v>42.771999999999998</v>
       </c>
       <c r="L627" s="72">
-        <v>61.666999999999987</v>
+        <v>61.666999999999994</v>
       </c>
       <c r="M627" s="72">
-        <v>59.161000000000001</v>
+        <v>59.160999999999994</v>
       </c>
       <c r="N627" s="72">
         <v>104.43899999999999</v>
@@ -37761,13 +37761,13 @@
         <v>50.837999999999994</v>
       </c>
       <c r="L718" s="72">
-        <v>64.584999999999994</v>
+        <v>64.58499999999998</v>
       </c>
       <c r="M718" s="72">
-        <v>26.483000000000001</v>
+        <v>26.483000000000004</v>
       </c>
       <c r="N718" s="72">
-        <v>115.42299999999999</v>
+        <v>115.42299999999997</v>
       </c>
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.25">
@@ -37849,13 +37849,13 @@
         <v>40.314999999999998</v>
       </c>
       <c r="L720" s="72">
-        <v>57.001999999999995</v>
+        <v>57.00200000000001</v>
       </c>
       <c r="M720" s="72">
-        <v>12.210999999999999</v>
+        <v>12.211</v>
       </c>
       <c r="N720" s="72">
-        <v>97.316999999999993</v>
+        <v>97.317000000000007</v>
       </c>
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.25">
@@ -37896,7 +37896,7 @@
         <v>28.569000000000006</v>
       </c>
       <c r="M721" s="72">
-        <v>68.74799999999999</v>
+        <v>68.748000000000005</v>
       </c>
       <c r="N721" s="72">
         <v>33.415000000000006</v>
@@ -38010,10 +38010,10 @@
         <v>70</v>
       </c>
       <c r="K724" s="72">
-        <v>76.432999999999993</v>
+        <v>76.433000000000021</v>
       </c>
       <c r="L724" s="72">
-        <v>31.90900000000002</v>
+        <v>31.908999999999992</v>
       </c>
       <c r="M724" s="72">
         <v>4.9960000000000004</v>
@@ -38098,16 +38098,16 @@
         <v>70</v>
       </c>
       <c r="K726" s="72">
-        <v>29.903999999999996</v>
+        <v>29.904</v>
       </c>
       <c r="L726" s="72">
-        <v>40.712000000000003</v>
+        <v>40.712000000000018</v>
       </c>
       <c r="M726" s="72">
         <v>73.444000000000003</v>
       </c>
       <c r="N726" s="72">
-        <v>70.616</v>
+        <v>70.616000000000014</v>
       </c>
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.25">
@@ -38148,7 +38148,7 @@
         <v>49.922999999999988</v>
       </c>
       <c r="M727" s="72">
-        <v>20.692999999999998</v>
+        <v>20.693000000000001</v>
       </c>
       <c r="N727" s="72">
         <v>83.24199999999999</v>
@@ -38189,13 +38189,13 @@
         <v>4.7</v>
       </c>
       <c r="L728" s="72">
-        <v>24.257999999999999</v>
+        <v>24.258000000000003</v>
       </c>
       <c r="M728" s="72">
         <v>58.983999999999995</v>
       </c>
       <c r="N728" s="72">
-        <v>28.957999999999998</v>
+        <v>28.958000000000002</v>
       </c>
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.25">
@@ -38233,7 +38233,7 @@
         <v>0</v>
       </c>
       <c r="M729" s="72">
-        <v>28.957999999999998</v>
+        <v>28.958000000000002</v>
       </c>
       <c r="N729" s="72">
         <v>0</v>
@@ -38306,16 +38306,16 @@
         <v>70</v>
       </c>
       <c r="K731" s="72">
-        <v>95.736999999999995</v>
+        <v>95.737000000000009</v>
       </c>
       <c r="L731" s="72">
-        <v>40.13900000000001</v>
+        <v>40.139000000000024</v>
       </c>
       <c r="M731" s="72">
         <v>4.9830000000000005</v>
       </c>
       <c r="N731" s="72">
-        <v>135.876</v>
+        <v>135.87600000000003</v>
       </c>
     </row>
     <row r="732" spans="1:14" x14ac:dyDescent="0.25">
@@ -38350,16 +38350,16 @@
         <v>70</v>
       </c>
       <c r="K732" s="72">
-        <v>22.948999999999998</v>
+        <v>22.949000000000002</v>
       </c>
       <c r="L732" s="72">
-        <v>70.554000000000016</v>
+        <v>70.554000000000002</v>
       </c>
       <c r="M732" s="72">
-        <v>65.322000000000003</v>
+        <v>65.321999999999989</v>
       </c>
       <c r="N732" s="72">
-        <v>93.503000000000014</v>
+        <v>93.503</v>
       </c>
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.25">
@@ -38397,13 +38397,13 @@
         <v>22.679000000000002</v>
       </c>
       <c r="L733" s="72">
-        <v>22.518999999999998</v>
+        <v>22.518999999999991</v>
       </c>
       <c r="M733" s="72">
         <v>70.984000000000009</v>
       </c>
       <c r="N733" s="72">
-        <v>45.198</v>
+        <v>45.197999999999993</v>
       </c>
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.25">
@@ -38438,10 +38438,10 @@
         <v>70</v>
       </c>
       <c r="K734" s="72">
-        <v>49.498999999999995</v>
+        <v>49.499000000000002</v>
       </c>
       <c r="L734" s="72">
-        <v>33.960999999999999</v>
+        <v>33.960999999999991</v>
       </c>
       <c r="M734" s="72">
         <v>11.237</v>
@@ -38485,13 +38485,13 @@
         <v>4.5459999999999994</v>
       </c>
       <c r="L735" s="72">
-        <v>24.289000000000001</v>
+        <v>24.288999999999998</v>
       </c>
       <c r="M735" s="72">
         <v>59.171000000000006</v>
       </c>
       <c r="N735" s="72">
-        <v>28.835000000000001</v>
+        <v>28.834999999999997</v>
       </c>
     </row>
     <row r="736" spans="1:14" x14ac:dyDescent="0.25">
@@ -38602,16 +38602,16 @@
         <v>70</v>
       </c>
       <c r="K738" s="72">
-        <v>61.771999999999998</v>
+        <v>61.771999999999991</v>
       </c>
       <c r="L738" s="72">
-        <v>26.067</v>
+        <v>26.066999999999993</v>
       </c>
       <c r="M738" s="72">
         <v>4.9380000000000006</v>
       </c>
       <c r="N738" s="72">
-        <v>87.838999999999999</v>
+        <v>87.838999999999984</v>
       </c>
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.25">
@@ -42037,13 +42037,13 @@
         <v>5.1240000000000006</v>
       </c>
       <c r="L819" s="72">
-        <v>35.126999999999995</v>
+        <v>35.127000000000002</v>
       </c>
       <c r="M819" s="72">
         <v>80.881</v>
       </c>
       <c r="N819" s="72">
-        <v>40.250999999999998</v>
+        <v>40.251000000000005</v>
       </c>
     </row>
     <row r="820" spans="1:14" x14ac:dyDescent="0.25">
@@ -42081,7 +42081,7 @@
         <v>0</v>
       </c>
       <c r="M820" s="72">
-        <v>40.250999999999998</v>
+        <v>40.251000000000005</v>
       </c>
       <c r="N820" s="72">
         <v>0</v>
@@ -42154,10 +42154,10 @@
         <v>70</v>
       </c>
       <c r="K822" s="72">
-        <v>71.938000000000002</v>
+        <v>71.937999999999988</v>
       </c>
       <c r="L822" s="72">
-        <v>29.616</v>
+        <v>29.616000000000014</v>
       </c>
       <c r="M822" s="72">
         <v>3.9339999999999997</v>
@@ -42201,13 +42201,13 @@
         <v>34.484999999999999</v>
       </c>
       <c r="L823" s="72">
-        <v>68.419000000000011</v>
+        <v>68.418999999999997</v>
       </c>
       <c r="M823" s="72">
         <v>33.135000000000005</v>
       </c>
       <c r="N823" s="72">
-        <v>102.90400000000001</v>
+        <v>102.904</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.25">
@@ -42242,10 +42242,10 @@
         <v>70</v>
       </c>
       <c r="K824" s="72">
-        <v>28.412000000000003</v>
+        <v>28.411999999999999</v>
       </c>
       <c r="L824" s="72">
-        <v>52.132000000000005</v>
+        <v>52.132000000000012</v>
       </c>
       <c r="M824" s="72">
         <v>50.771999999999998</v>
@@ -42289,13 +42289,13 @@
         <v>33.112000000000002</v>
       </c>
       <c r="L825" s="72">
-        <v>56.601000000000006</v>
+        <v>56.600999999999992</v>
       </c>
       <c r="M825" s="72">
         <v>23.942999999999998</v>
       </c>
       <c r="N825" s="72">
-        <v>89.713000000000008</v>
+        <v>89.712999999999994</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -43930,7 +43930,7 @@
         <v>70</v>
       </c>
       <c r="K864" s="72">
-        <v>107.79299999999998</v>
+        <v>107.79300000000001</v>
       </c>
       <c r="L864" s="72">
         <v>45.087999999999994</v>
@@ -43939,7 +43939,7 @@
         <v>4.0289999999999999</v>
       </c>
       <c r="N864" s="72">
-        <v>152.88099999999997</v>
+        <v>152.881</v>
       </c>
     </row>
     <row r="865" spans="1:14" x14ac:dyDescent="0.25">
@@ -43974,16 +43974,16 @@
         <v>70</v>
       </c>
       <c r="K865" s="72">
-        <v>39.995999999999995</v>
+        <v>39.996000000000002</v>
       </c>
       <c r="L865" s="72">
-        <v>101.64999999999996</v>
+        <v>101.65</v>
       </c>
       <c r="M865" s="72">
-        <v>51.231000000000009</v>
+        <v>51.230999999999995</v>
       </c>
       <c r="N865" s="72">
-        <v>141.64599999999996</v>
+        <v>141.64600000000002</v>
       </c>
     </row>
     <row r="866" spans="1:14" x14ac:dyDescent="0.25">
@@ -44018,13 +44018,13 @@
         <v>70</v>
       </c>
       <c r="K866" s="72">
-        <v>17.363999999999997</v>
+        <v>17.364000000000001</v>
       </c>
       <c r="L866" s="72">
-        <v>53.21</v>
+        <v>53.209999999999994</v>
       </c>
       <c r="M866" s="72">
-        <v>88.435999999999979</v>
+        <v>88.436000000000007</v>
       </c>
       <c r="N866" s="72">
         <v>70.573999999999998</v>
@@ -45926,10 +45926,10 @@
         <v>70</v>
       </c>
       <c r="K911" s="72">
-        <v>25.99</v>
+        <v>25.990000000000002</v>
       </c>
       <c r="L911" s="72">
-        <v>48.081999999999994</v>
+        <v>48.081999999999987</v>
       </c>
       <c r="M911" s="72">
         <v>67.783999999999992</v>
@@ -45970,7 +45970,7 @@
         <v>70</v>
       </c>
       <c r="K912" s="72">
-        <v>14.198999999999998</v>
+        <v>14.199000000000002</v>
       </c>
       <c r="L912" s="72">
         <v>50.777999999999992</v>
@@ -46310,7 +46310,7 @@
         <v>70</v>
       </c>
       <c r="K920" s="72">
-        <v>21.551000000000002</v>
+        <v>21.550999999999998</v>
       </c>
       <c r="L920" s="72">
         <v>36.387</v>
@@ -46357,13 +46357,13 @@
         <v>31.337</v>
       </c>
       <c r="L921" s="72">
-        <v>46.573999999999998</v>
+        <v>46.573999999999984</v>
       </c>
       <c r="M921" s="72">
         <v>11.364000000000001</v>
       </c>
       <c r="N921" s="72">
-        <v>77.911000000000001</v>
+        <v>77.910999999999987</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.25">
@@ -46398,7 +46398,7 @@
         <v>70</v>
       </c>
       <c r="K922" s="72">
-        <v>29.114000000000001</v>
+        <v>29.114000000000004</v>
       </c>
       <c r="L922" s="72">
         <v>60.494</v>
@@ -46448,7 +46448,7 @@
         <v>40.269999999999996</v>
       </c>
       <c r="M923" s="72">
-        <v>49.338000000000008</v>
+        <v>49.338000000000001</v>
       </c>
       <c r="N923" s="72">
         <v>44.715999999999994</v>
@@ -46518,7 +46518,7 @@
         <v>70</v>
       </c>
       <c r="K925" s="72">
-        <v>21.118000000000002</v>
+        <v>21.117999999999999</v>
       </c>
       <c r="L925" s="72">
         <v>0</v>
@@ -46527,7 +46527,7 @@
         <v>0</v>
       </c>
       <c r="N925" s="72">
-        <v>21.118000000000002</v>
+        <v>21.117999999999999</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.25">
@@ -46562,10 +46562,10 @@
         <v>70</v>
       </c>
       <c r="K926" s="72">
-        <v>31.542000000000002</v>
+        <v>31.542000000000005</v>
       </c>
       <c r="L926" s="72">
-        <v>18.778000000000006</v>
+        <v>18.778000000000002</v>
       </c>
       <c r="M926" s="72">
         <v>2.34</v>
@@ -46606,7 +46606,7 @@
         <v>70</v>
       </c>
       <c r="K927" s="72">
-        <v>47.498000000000005</v>
+        <v>47.49799999999999</v>
       </c>
       <c r="L927" s="72">
         <v>46.855000000000004</v>
@@ -46615,7 +46615,7 @@
         <v>3.4650000000000003</v>
       </c>
       <c r="N927" s="72">
-        <v>94.353000000000009</v>
+        <v>94.352999999999994</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.25">
@@ -46653,13 +46653,13 @@
         <v>38.444000000000003</v>
       </c>
       <c r="L928" s="72">
-        <v>66.307999999999993</v>
+        <v>66.308000000000007</v>
       </c>
       <c r="M928" s="72">
         <v>28.045000000000002</v>
       </c>
       <c r="N928" s="72">
-        <v>104.752</v>
+        <v>104.75200000000001</v>
       </c>
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.25">
@@ -50150,16 +50150,16 @@
         <v>70</v>
       </c>
       <c r="K1010" s="72">
-        <v>36.959000000000003</v>
+        <v>36.958999999999996</v>
       </c>
       <c r="L1010" s="72">
-        <v>45.835999999999999</v>
+        <v>45.835999999999991</v>
       </c>
       <c r="M1010" s="72">
         <v>71.384</v>
       </c>
       <c r="N1010" s="72">
-        <v>82.795000000000002</v>
+        <v>82.794999999999987</v>
       </c>
     </row>
     <row r="1011" spans="1:14" x14ac:dyDescent="0.25">
@@ -50288,10 +50288,10 @@
         <v>13.465</v>
       </c>
       <c r="M1013" s="72">
-        <v>21.169000000000004</v>
+        <v>21.169</v>
       </c>
       <c r="N1013" s="72">
-        <v>15.659000000000001</v>
+        <v>15.658999999999999</v>
       </c>
     </row>
     <row r="1014" spans="1:14" x14ac:dyDescent="0.25">
@@ -50329,7 +50329,7 @@
         <v>0</v>
       </c>
       <c r="M1014" s="72">
-        <v>15.659000000000001</v>
+        <v>15.658999999999999</v>
       </c>
       <c r="N1014" s="72">
         <v>0</v>
@@ -50358,7 +50358,7 @@
         <v>70</v>
       </c>
       <c r="K1015" s="72">
-        <v>52.576000000000001</v>
+        <v>52.576000000000008</v>
       </c>
       <c r="L1015" s="72">
         <v>0</v>
@@ -50367,7 +50367,7 @@
         <v>0</v>
       </c>
       <c r="N1015" s="72">
-        <v>52.576000000000001</v>
+        <v>52.576000000000008</v>
       </c>
     </row>
     <row r="1016" spans="1:14" x14ac:dyDescent="0.25">
@@ -50534,10 +50534,10 @@
         <v>70</v>
       </c>
       <c r="K1019" s="72">
-        <v>45.595000000000006</v>
+        <v>45.594999999999999</v>
       </c>
       <c r="L1019" s="72">
-        <v>43.781999999999989</v>
+        <v>43.781999999999996</v>
       </c>
       <c r="M1019" s="72">
         <v>67.111999999999995</v>
@@ -50584,7 +50584,7 @@
         <v>63.252999999999986</v>
       </c>
       <c r="M1020" s="72">
-        <v>26.124000000000002</v>
+        <v>26.123999999999999</v>
       </c>
       <c r="N1020" s="72">
         <v>96.270999999999987</v>
@@ -50628,7 +50628,7 @@
         <v>33.516000000000005</v>
       </c>
       <c r="M1021" s="72">
-        <v>62.75500000000001</v>
+        <v>62.754999999999995</v>
       </c>
       <c r="N1021" s="72">
         <v>36.617000000000004</v>
@@ -50672,7 +50672,7 @@
         <v>14.254000000000001</v>
       </c>
       <c r="M1022" s="72">
-        <v>22.363</v>
+        <v>22.363000000000003</v>
       </c>
       <c r="N1022" s="72">
         <v>16.384</v>
@@ -50786,16 +50786,16 @@
         <v>70</v>
       </c>
       <c r="K1025" s="72">
-        <v>54.103000000000009</v>
+        <v>54.102999999999994</v>
       </c>
       <c r="L1025" s="72">
-        <v>43.613</v>
+        <v>43.612999999999985</v>
       </c>
       <c r="M1025" s="72">
         <v>4.4380000000000006</v>
       </c>
       <c r="N1025" s="72">
-        <v>97.716000000000008</v>
+        <v>97.71599999999998</v>
       </c>
     </row>
     <row r="1026" spans="1:14" x14ac:dyDescent="0.25">
@@ -50839,7 +50839,7 @@
         <v>27.008000000000003</v>
       </c>
       <c r="N1026" s="72">
-        <v>97.115000000000009</v>
+        <v>97.114999999999995</v>
       </c>
     </row>
     <row r="1027" spans="1:14" x14ac:dyDescent="0.25">
@@ -54198,13 +54198,13 @@
         <v>70</v>
       </c>
       <c r="K1105" s="72">
-        <v>36.157000000000004</v>
+        <v>36.156999999999996</v>
       </c>
       <c r="L1105" s="72">
-        <v>20.725000000000001</v>
+        <v>20.725000000000009</v>
       </c>
       <c r="M1105" s="72">
-        <v>111.34300000000002</v>
+        <v>111.343</v>
       </c>
       <c r="N1105" s="72">
         <v>56.882000000000005</v>
@@ -54450,10 +54450,10 @@
         <v>70</v>
       </c>
       <c r="K1111" s="72">
-        <v>65.548999999999992</v>
+        <v>65.549000000000007</v>
       </c>
       <c r="L1111" s="72">
-        <v>56.075000000000003</v>
+        <v>56.074999999999989</v>
       </c>
       <c r="M1111" s="72">
         <v>7.1980000000000004</v>
@@ -54588,10 +54588,10 @@
         <v>32.085999999999999</v>
       </c>
       <c r="M1114" s="72">
-        <v>9.4550000000000018</v>
+        <v>9.4550000000000001</v>
       </c>
       <c r="N1114" s="72">
-        <v>34.249000000000002</v>
+        <v>34.248999999999995</v>
       </c>
     </row>
     <row r="1115" spans="1:14" x14ac:dyDescent="0.25">
@@ -54632,7 +54632,7 @@
         <v>19.232000000000003</v>
       </c>
       <c r="M1115" s="72">
-        <v>15.017000000000003</v>
+        <v>15.016999999999999</v>
       </c>
       <c r="N1115" s="72">
         <v>20.859000000000002</v>
@@ -54749,13 +54749,13 @@
         <v>65.975999999999999</v>
       </c>
       <c r="L1118" s="72">
-        <v>57.422999999999988</v>
+        <v>57.423000000000002</v>
       </c>
       <c r="M1118" s="72">
         <v>7.056</v>
       </c>
       <c r="N1118" s="72">
-        <v>123.39899999999999</v>
+        <v>123.399</v>
       </c>
     </row>
     <row r="1119" spans="1:14" x14ac:dyDescent="0.25">
@@ -57419,7 +57419,7 @@
         <v>7.3490000000000002</v>
       </c>
       <c r="N1181" s="72">
-        <v>127.797</v>
+        <v>127.79700000000001</v>
       </c>
     </row>
     <row r="1182" spans="1:14" x14ac:dyDescent="0.25">
@@ -57592,7 +57592,7 @@
         <v>37.058999999999997</v>
       </c>
       <c r="M1185" s="72">
-        <v>83.946000000000012</v>
+        <v>83.945999999999998</v>
       </c>
       <c r="N1185" s="72">
         <v>40.850999999999999</v>
@@ -57662,7 +57662,7 @@
         <v>70</v>
       </c>
       <c r="K1187" s="72">
-        <v>133.11200000000002</v>
+        <v>133.11199999999999</v>
       </c>
       <c r="L1187" s="72">
         <v>0</v>
@@ -57671,7 +57671,7 @@
         <v>0</v>
       </c>
       <c r="N1187" s="72">
-        <v>133.11200000000002</v>
+        <v>133.11199999999999</v>
       </c>
     </row>
     <row r="1188" spans="1:14" x14ac:dyDescent="0.25">
@@ -57756,7 +57756,7 @@
         <v>118.64300000000001</v>
       </c>
       <c r="M1189" s="72">
-        <v>34.832000000000008</v>
+        <v>34.832000000000001</v>
       </c>
       <c r="N1189" s="72">
         <v>147.74100000000001</v>
@@ -57794,7 +57794,7 @@
         <v>70</v>
       </c>
       <c r="K1190" s="72">
-        <v>37.891000000000005</v>
+        <v>37.890999999999998</v>
       </c>
       <c r="L1190" s="72">
         <v>81.347000000000008</v>
@@ -63222,13 +63222,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.063999999999993</v>
+        <v>76.064000000000021</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571426</v>
+        <v>0.21732571428571434</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -63309,13 +63309,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>80.989750000000058</v>
+        <v>80.989749999999972</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.57849821428571468</v>
+        <v>0.57849821428571413</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -63338,13 +63338,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>103.20675000000003</v>
+        <v>103.20675000000001</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73719107142857165</v>
+        <v>0.73719107142857154</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -63454,13 +63454,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.377999999999993</v>
+        <v>50.377999999999965</v>
       </c>
       <c r="H19" s="72">
         <v>140</v>
       </c>
       <c r="I19" s="76">
-        <v>0.35984285714285708</v>
+        <v>0.35984285714285691</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -63599,13 +63599,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135749999999973</v>
+        <v>61.135749999999987</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.29112261904761894</v>
+        <v>0.29112261904761899</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -63628,13 +63628,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853499999999976</v>
+        <v>43.853499999999997</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.20882619047619036</v>
+        <v>0.20882619047619047</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -63744,13 +63744,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>126.28975000000004</v>
+        <v>126.28975</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.60137976190476206</v>
+        <v>0.60137976190476194</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -63831,13 +63831,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>121.27875000000009</v>
+        <v>121.27875</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.57751785714285753</v>
+        <v>0.57751785714285719</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -63860,13 +63860,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>175.43350000000004</v>
+        <v>175.43350000000001</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.83539761904761922</v>
+        <v>0.83539761904761911</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -63889,13 +63889,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>724.85199999999907</v>
+        <v>724.85199999999872</v>
       </c>
       <c r="H34" s="72">
         <v>770</v>
       </c>
       <c r="I34" s="76">
-        <v>0.94136623376623252</v>
+        <v>0.94136623376623207</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -63918,13 +63918,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>304.21774999999968</v>
+        <v>304.2177499999998</v>
       </c>
       <c r="H35" s="72">
         <v>770</v>
       </c>
       <c r="I35" s="76">
-        <v>0.39508798701298659</v>
+        <v>0.39508798701298675</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -63947,13 +63947,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.74349999999999</v>
+        <v>43.743499999999997</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.20830238095238091</v>
+        <v>0.20830238095238093</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -63976,13 +63976,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.180749999999996</v>
+        <v>59.18075000000001</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.28181309523809522</v>
+        <v>0.28181309523809528</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -64121,13 +64121,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462500000000006</v>
+        <v>64.462499999999991</v>
       </c>
       <c r="H42" s="72">
         <v>140</v>
       </c>
       <c r="I42" s="76">
-        <v>0.46044642857142859</v>
+        <v>0.46044642857142853</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -64150,13 +64150,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313249999999996</v>
+        <v>38.313250000000004</v>
       </c>
       <c r="H43" s="72">
         <v>140</v>
       </c>
       <c r="I43" s="76">
-        <v>0.27366607142857141</v>
+        <v>0.27366607142857147</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -64237,13 +64237,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>124.24325000000002</v>
+        <v>124.24325</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.88745178571428585</v>
+        <v>0.88745178571428573</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -64266,13 +64266,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>114.32925000000007</v>
+        <v>114.3292500000001</v>
       </c>
       <c r="H47" s="72">
         <v>140</v>
       </c>
       <c r="I47" s="76">
-        <v>0.81663750000000057</v>
+        <v>0.81663750000000068</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -64353,13 +64353,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>124.49674999999998</v>
+        <v>124.49674999999996</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.5928416666666666</v>
+        <v>0.59284166666666649</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -64382,13 +64382,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>188.66500000000005</v>
+        <v>188.66499999999999</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89840476190476215</v>
+        <v>0.89840476190476182</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -64411,13 +64411,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>413.38474999999971</v>
+        <v>413.38475000000022</v>
       </c>
       <c r="H52" s="72">
         <v>700</v>
       </c>
       <c r="I52" s="76">
-        <v>0.5905496428571424</v>
+        <v>0.59054964285714318</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -64440,13 +64440,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>525.06874999999968</v>
+        <v>525.06875000000002</v>
       </c>
       <c r="H53" s="72">
         <v>700</v>
       </c>
       <c r="I53" s="76">
-        <v>0.75009821428571388</v>
+        <v>0.75009821428571433</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -64469,13 +64469,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967249999999986</v>
+        <v>43.967249999999993</v>
       </c>
       <c r="H54" s="72">
         <v>210</v>
       </c>
       <c r="I54" s="76">
-        <v>0.20936785714285708</v>
+        <v>0.20936785714285711</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -64498,13 +64498,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.39374999999999</v>
+        <v>63.39375000000004</v>
       </c>
       <c r="H55" s="72">
         <v>210</v>
       </c>
       <c r="I55" s="76">
-        <v>0.30187499999999995</v>
+        <v>0.30187500000000017</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -64643,13 +64643,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>96.946750000000051</v>
+        <v>96.946749999999994</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.46165119047619074</v>
+        <v>0.46165119047619046</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -64672,13 +64672,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>85.317000000000007</v>
+        <v>85.317000000000036</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.40627142857142862</v>
+        <v>0.40627142857142873</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -64701,13 +64701,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>56.839250000000007</v>
+        <v>56.83925</v>
       </c>
       <c r="H62" s="72">
         <v>140</v>
       </c>
       <c r="I62" s="76">
-        <v>0.40599464285714293</v>
+        <v>0.40599464285714287</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -64730,13 +64730,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>47.751750000000015</v>
+        <v>47.751749999999994</v>
       </c>
       <c r="H63" s="72">
         <v>140</v>
       </c>
       <c r="I63" s="76">
-        <v>0.34108392857142866</v>
+        <v>0.34108392857142855</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -64759,13 +64759,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>197.89450000000002</v>
+        <v>197.89449999999982</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.94235476190476197</v>
+        <v>0.94235476190476108</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -64788,13 +64788,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>143.03950000000003</v>
+        <v>143.03949999999995</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.68114047619047635</v>
+        <v>0.68114047619047591</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -64904,13 +64904,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96600000000009</v>
+        <v>166.96599999999995</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.79507619047619094</v>
+        <v>0.79507619047619027</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -64962,13 +64962,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>172.42474999999996</v>
+        <v>172.42474999999993</v>
       </c>
       <c r="H71" s="72">
         <v>280</v>
       </c>
       <c r="I71" s="76">
-        <v>0.61580267857142845</v>
+        <v>0.61580267857142834</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -65165,13 +65165,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>77.445250000000016</v>
+        <v>77.44525000000003</v>
       </c>
       <c r="H78" s="72">
         <v>280</v>
       </c>
       <c r="I78" s="76">
-        <v>0.27659017857142865</v>
+        <v>0.2765901785714287</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -65194,13 +65194,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>49.77000000000001</v>
+        <v>49.769999999999982</v>
       </c>
       <c r="H79" s="72">
         <v>280</v>
       </c>
       <c r="I79" s="76">
-        <v>0.17775000000000005</v>
+        <v>0.17774999999999994</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -65223,13 +65223,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>110.33375000000002</v>
+        <v>110.33375000000004</v>
       </c>
       <c r="H80" s="72">
         <v>280</v>
       </c>
       <c r="I80" s="76">
-        <v>0.39404910714285724</v>
+        <v>0.39404910714285729</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -65252,13 +65252,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>62.778250000000007</v>
+        <v>62.77825</v>
       </c>
       <c r="H81" s="72">
         <v>280</v>
       </c>
       <c r="I81" s="76">
-        <v>0.22420803571428574</v>
+        <v>0.22420803571428571</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -65281,13 +65281,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.1172500000001</v>
+        <v>192.11725000000013</v>
       </c>
       <c r="H82" s="72">
         <v>280</v>
       </c>
       <c r="I82" s="76">
-        <v>0.68613303571428608</v>
+        <v>0.68613303571428619</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -65310,13 +65310,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186750000000018</v>
+        <v>86.18675000000006</v>
       </c>
       <c r="H83" s="72">
         <v>280</v>
       </c>
       <c r="I83" s="76">
-        <v>0.3078098214285715</v>
+        <v>0.30780982142857166</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -65339,13 +65339,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125000000008</v>
+        <v>168.25125</v>
       </c>
       <c r="H84" s="72">
         <v>280</v>
       </c>
       <c r="I84" s="76">
-        <v>0.60089732142857177</v>
+        <v>0.60089732142857144</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -65368,13 +65368,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.551999999999978</v>
+        <v>40.551999999999985</v>
       </c>
       <c r="H85" s="72">
         <v>280</v>
       </c>
       <c r="I85" s="76">
-        <v>0.14482857142857136</v>
+        <v>0.14482857142857139</v>
       </c>
     </row>
   </sheetData>
